--- a/biology/Virologie/Metapneumovirus/Metapneumovirus.xlsx
+++ b/biology/Virologie/Metapneumovirus/Metapneumovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Métapneumovirus sont des virus du groupe des mononegavirales. Ce sont des virus à ARN.
 </t>
@@ -511,9 +523,11 @@
           <t>Groupe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les metapneumovirus de l'homme (hMPV) ont été isolés pour la première fois en 2001 aux Pays-Bas chez des enfants infectés[2] en utilisant la technique PAR-PCR (ARN arbitrairement amorcée PCR) pour l'identification des virus inconnus (de plus en plus dans des cellules en culture). Les hMPV sont des virus à ARN monocaténaire négatif de la famille des Paramyxoviridae et sont étroitement liés aux metapneumovirus aviaire (AMPV) de sous-groupe C. C'est sans doute la deuxième cause (après le virus respiratoire syncytial) d'infections des voies respiratoires inférieures chez les jeunes enfants. Ils appartiennent au groupe des mononegavirales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les metapneumovirus de l'homme (hMPV) ont été isolés pour la première fois en 2001 aux Pays-Bas chez des enfants infectés en utilisant la technique PAR-PCR (ARN arbitrairement amorcée PCR) pour l'identification des virus inconnus (de plus en plus dans des cellules en culture). Les hMPV sont des virus à ARN monocaténaire négatif de la famille des Paramyxoviridae et sont étroitement liés aux metapneumovirus aviaire (AMPV) de sous-groupe C. C'est sans doute la deuxième cause (après le virus respiratoire syncytial) d'infections des voies respiratoires inférieures chez les jeunes enfants. Ils appartiennent au groupe des mononegavirales.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'organisation génomique du hMPV est analogue au RSV. Au hMPV manque toutefois des structures géniques, ns1 et NS2, et l'ARN contient huit légères différences. L'hMPV est génétiquement semblable au virus de la pneumonie aviaire A, B et en particulier de type C. L'analyse phylogénétique de hMPV a démontré l'existence de deux grandes lignées génétiques appelées sous-type A et B, qui contiennent au sein de ces sous-groupes A1/A2 et B1/B2.
 </t>
@@ -573,7 +589,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'identification du hMPV est principalement basée sur la transcriptase inverse, réaction en chaîne par polymérase (RT-PCR) pour l'amplifier directement à partir d'ARN extraits de spécimens respiratoires. Des alternatives plus économiques aux approches de détection de hMPV par acide nucléique ont été utilisées et elles incluent: 1) détection des antigènes hMPV dans les sécrétions du nasopharynx par immunofluorescence-test de détection des anticorps 2) l'utilisation de marquages par immunofluorescence anticorps monoclonaux pour détecter le hMPV dans les sécrétions du nasopharynx et cultures ex-vivo 3) tests d'immunofluorescence pour la détection des hMPV-anticorps spécifiques 4) l'utilisation des anticorps polyclonaux et diriger l'isolement dans des cellules en culture.
 </t>
@@ -604,15 +622,17 @@
           <t>Infection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus est responsables de pneumopathies ou d'infections des voies aériennes supérieures.
-Il est responsable de davantage d'hospitalisations chez l'enfant de moins de cinq ans, et surtout, de moins d'un an[3]. Par rapport au virus respiratoire syncytial, l'infection du metapneumovirus humain a tendance à se produire chez les enfants plus âgés et à provoquer une maladie qui est moins sévère. Des co-infections par deux virus peuvent se produire, et sont généralement associées à des formes plus graves.
-Les metapneumovirus humains représentent environ 20 % des infections des voies respiratoires de l'enfant qui ne sont pas liés à des agents infectieux connus précédemment[4], ce qui correspond à une pneumopathie sur dix. Le virus semble être dispersé dans le monde entier et avoir une répartition saisonnière avec son incidence comparable à celle de la grippe pendant l'hiver. Les études Sérologiques ont montré qu'à l'âge de cinq ans, pratiquement tous les enfants ont été exposés au virus.
-Le virus serait responsable de près de 10 % des pneumopathies infectieuses de l'adulte[5] et pourrait être associé à des exacerbations de broncho-pneumopathie chronique obstructive[6] ou d'une maladie asthmatique[7]. Il est retrouvé chez les adultes[8] et les enfants[9] hospitalisés pour infection pulmonaire avec une fréquence équivalente à celle du virus respiratoire syncytial ou à celle du virus de la grippe.
-Le portage asymptomatique du virus est courant[10].
-La maladie est habituellement bénigne mais elle peut être plus grave chez certains sujets, comme la personne âgée[11] ou les patients ayant une greffe de poumon où l'infection pourrait favoriser la survenue d'un rejet[12].
-Le virus peut provoquer une maladie proche chez le rat[13] et chez les primates[14].
+Il est responsable de davantage d'hospitalisations chez l'enfant de moins de cinq ans, et surtout, de moins d'un an. Par rapport au virus respiratoire syncytial, l'infection du metapneumovirus humain a tendance à se produire chez les enfants plus âgés et à provoquer une maladie qui est moins sévère. Des co-infections par deux virus peuvent se produire, et sont généralement associées à des formes plus graves.
+Les metapneumovirus humains représentent environ 20 % des infections des voies respiratoires de l'enfant qui ne sont pas liés à des agents infectieux connus précédemment, ce qui correspond à une pneumopathie sur dix. Le virus semble être dispersé dans le monde entier et avoir une répartition saisonnière avec son incidence comparable à celle de la grippe pendant l'hiver. Les études Sérologiques ont montré qu'à l'âge de cinq ans, pratiquement tous les enfants ont été exposés au virus.
+Le virus serait responsable de près de 10 % des pneumopathies infectieuses de l'adulte et pourrait être associé à des exacerbations de broncho-pneumopathie chronique obstructive ou d'une maladie asthmatique. Il est retrouvé chez les adultes et les enfants hospitalisés pour infection pulmonaire avec une fréquence équivalente à celle du virus respiratoire syncytial ou à celle du virus de la grippe.
+Le portage asymptomatique du virus est courant.
+La maladie est habituellement bénigne mais elle peut être plus grave chez certains sujets, comme la personne âgée ou les patients ayant une greffe de poumon où l'infection pourrait favoriser la survenue d'un rejet.
+Le virus peut provoquer une maladie proche chez le rat et chez les primates.
 </t>
         </is>
       </c>
